--- a/data/trans_orig/P14C22-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14C22-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F1ED4661-D62A-43C2-8958-7128F2449AFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7D86CF5D-658D-41AD-8305-93DA21F6FF00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{85B808BC-A9DB-4C5C-B8F0-83DD0EF8A4FF}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A2E0B80B-8F64-41A5-A86A-485C9C80F496}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -74,16 +74,16 @@
     <t>46,14%</t>
   </si>
   <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>79,33%</t>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>79,25%</t>
   </si>
   <si>
     <t>90,23%</t>
   </si>
   <si>
-    <t>53,42%</t>
+    <t>55,77%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -92,10 +92,10 @@
     <t>71,87%</t>
   </si>
   <si>
-    <t>48,44%</t>
-  </si>
-  <si>
-    <t>87,61%</t>
+    <t>48,38%</t>
+  </si>
+  <si>
+    <t>88,67%</t>
   </si>
   <si>
     <t>De 1 a 4 años</t>
@@ -104,10 +104,10 @@
     <t>53,86%</t>
   </si>
   <si>
-    <t>20,67%</t>
-  </si>
-  <si>
-    <t>87,82%</t>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>87,71%</t>
   </si>
   <si>
     <t>0,0%</t>
@@ -122,10 +122,10 @@
     <t>22,42%</t>
   </si>
   <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>45,13%</t>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>44,49%</t>
   </si>
   <si>
     <t>Ultimos 12 meses</t>
@@ -134,13 +134,13 @@
     <t>9,77%</t>
   </si>
   <si>
-    <t>46,58%</t>
+    <t>44,23%</t>
   </si>
   <si>
     <t>5,7%</t>
   </si>
   <si>
-    <t>24,17%</t>
+    <t>23,66%</t>
   </si>
   <si>
     <t>100%</t>
@@ -155,28 +155,28 @@
     <t>21,46%</t>
   </si>
   <si>
-    <t>88,39%</t>
+    <t>88,43%</t>
   </si>
   <si>
     <t>83,16%</t>
   </si>
   <si>
-    <t>32,3%</t>
+    <t>32,43%</t>
   </si>
   <si>
     <t>69,61%</t>
   </si>
   <si>
-    <t>37,7%</t>
-  </si>
-  <si>
-    <t>92,05%</t>
+    <t>35,64%</t>
+  </si>
+  <si>
+    <t>92,22%</t>
   </si>
   <si>
     <t>41,33%</t>
   </si>
   <si>
-    <t>11,61%</t>
+    <t>11,57%</t>
   </si>
   <si>
     <t>78,54%</t>
@@ -188,10 +188,10 @@
     <t>22,86%</t>
   </si>
   <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>53,41%</t>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>55,3%</t>
   </si>
   <si>
     <t>23,25%</t>
@@ -200,13 +200,13 @@
     <t>16,84%</t>
   </si>
   <si>
-    <t>67,7%</t>
+    <t>67,57%</t>
   </si>
   <si>
     <t>7,53%</t>
   </si>
   <si>
-    <t>38,78%</t>
+    <t>37,78%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -215,7 +215,7 @@
     <t>58,45%</t>
   </si>
   <si>
-    <t>16,65%</t>
+    <t>17,53%</t>
   </si>
   <si>
     <t>43,07%</t>
@@ -224,13 +224,13 @@
     <t>75,18%</t>
   </si>
   <si>
-    <t>27,59%</t>
+    <t>37,57%</t>
   </si>
   <si>
     <t>23,42%</t>
   </si>
   <si>
-    <t>82,96%</t>
+    <t>82,75%</t>
   </si>
   <si>
     <t>56,93%</t>
@@ -239,49 +239,49 @@
     <t>13,99%</t>
   </si>
   <si>
-    <t>59,71%</t>
+    <t>48,75%</t>
   </si>
   <si>
     <t>18,13%</t>
   </si>
   <si>
-    <t>76,89%</t>
+    <t>77,26%</t>
   </si>
   <si>
     <t>10,83%</t>
   </si>
   <si>
-    <t>54,17%</t>
-  </si>
-  <si>
-    <t>32,38%</t>
-  </si>
-  <si>
-    <t>74,98%</t>
+    <t>52,97%</t>
+  </si>
+  <si>
+    <t>32,13%</t>
+  </si>
+  <si>
+    <t>73,82%</t>
   </si>
   <si>
     <t>89,6%</t>
   </si>
   <si>
-    <t>66,08%</t>
+    <t>71,02%</t>
   </si>
   <si>
     <t>71,74%</t>
   </si>
   <si>
-    <t>55,84%</t>
-  </si>
-  <si>
-    <t>84,39%</t>
+    <t>57,5%</t>
+  </si>
+  <si>
+    <t>84,1%</t>
   </si>
   <si>
     <t>41,85%</t>
   </si>
   <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>63,43%</t>
+    <t>22,62%</t>
+  </si>
+  <si>
+    <t>63,68%</t>
   </si>
   <si>
     <t>10,53%</t>
@@ -290,31 +290,31 @@
     <t>20,91%</t>
   </si>
   <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>36,17%</t>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>35,02%</t>
   </si>
   <si>
     <t>4,29%</t>
   </si>
   <si>
-    <t>22,73%</t>
+    <t>22,29%</t>
   </si>
   <si>
     <t>10,4%</t>
   </si>
   <si>
-    <t>33,92%</t>
+    <t>28,98%</t>
   </si>
   <si>
     <t>7,35%</t>
   </si>
   <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -729,7 +729,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFB764FE-A51A-4113-A817-1A9700C2E558}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E1B140B-7BE4-45E2-BCF6-503FA336E831}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P14C22-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14C22-Estudios-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7D86CF5D-658D-41AD-8305-93DA21F6FF00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B793EB25-BA6C-4257-A700-EAD78CA2E8DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A2E0B80B-8F64-41A5-A86A-485C9C80F496}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{822F0626-18EC-4181-9A86-ABFA175A7AB2}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,9 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="94">
-  <si>
-    <t>Población según el tiempo de diagnóstico del accidente cerebrovascular en 2015 (Tasa respuesta: 0,58%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="93">
+  <si>
+    <t>Población según el tiempo de diagnóstico del accidente cerebrovascular en 2016 (Tasa respuesta: 0,58%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -74,16 +74,16 @@
     <t>46,14%</t>
   </si>
   <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>79,25%</t>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>79,22%</t>
   </si>
   <si>
     <t>90,23%</t>
   </si>
   <si>
-    <t>55,77%</t>
+    <t>56,18%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -92,10 +92,10 @@
     <t>71,87%</t>
   </si>
   <si>
-    <t>48,38%</t>
-  </si>
-  <si>
-    <t>88,67%</t>
+    <t>47,63%</t>
+  </si>
+  <si>
+    <t>87,47%</t>
   </si>
   <si>
     <t>De 1 a 4 años</t>
@@ -104,10 +104,10 @@
     <t>53,86%</t>
   </si>
   <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>87,71%</t>
+    <t>20,78%</t>
+  </si>
+  <si>
+    <t>87,84%</t>
   </si>
   <si>
     <t>0,0%</t>
@@ -122,10 +122,10 @@
     <t>22,42%</t>
   </si>
   <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>44,49%</t>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>44,17%</t>
   </si>
   <si>
     <t>Ultimos 12 meses</t>
@@ -134,13 +134,13 @@
     <t>9,77%</t>
   </si>
   <si>
-    <t>44,23%</t>
+    <t>43,82%</t>
   </si>
   <si>
     <t>5,7%</t>
   </si>
   <si>
-    <t>23,66%</t>
+    <t>30,22%</t>
   </si>
   <si>
     <t>100%</t>
@@ -152,34 +152,34 @@
     <t>58,67%</t>
   </si>
   <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>88,43%</t>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>87,48%</t>
   </si>
   <si>
     <t>83,16%</t>
   </si>
   <si>
-    <t>32,43%</t>
+    <t>32,84%</t>
   </si>
   <si>
     <t>69,61%</t>
   </si>
   <si>
-    <t>35,64%</t>
-  </si>
-  <si>
-    <t>92,22%</t>
+    <t>44,09%</t>
+  </si>
+  <si>
+    <t>92,36%</t>
   </si>
   <si>
     <t>41,33%</t>
   </si>
   <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>78,54%</t>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>78,44%</t>
   </si>
   <si>
     <t>26,42%</t>
@@ -188,10 +188,10 @@
     <t>22,86%</t>
   </si>
   <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>55,3%</t>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>51,35%</t>
   </si>
   <si>
     <t>23,25%</t>
@@ -200,13 +200,13 @@
     <t>16,84%</t>
   </si>
   <si>
-    <t>67,57%</t>
+    <t>67,16%</t>
   </si>
   <si>
     <t>7,53%</t>
   </si>
   <si>
-    <t>37,78%</t>
+    <t>31,68%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -215,22 +215,19 @@
     <t>58,45%</t>
   </si>
   <si>
-    <t>17,53%</t>
-  </si>
-  <si>
     <t>43,07%</t>
   </si>
   <si>
     <t>75,18%</t>
   </si>
   <si>
-    <t>37,57%</t>
+    <t>29,88%</t>
   </si>
   <si>
     <t>23,42%</t>
   </si>
   <si>
-    <t>82,75%</t>
+    <t>84,13%</t>
   </si>
   <si>
     <t>56,93%</t>
@@ -239,49 +236,49 @@
     <t>13,99%</t>
   </si>
   <si>
-    <t>48,75%</t>
+    <t>61,86%</t>
   </si>
   <si>
     <t>18,13%</t>
   </si>
   <si>
-    <t>77,26%</t>
+    <t>79,02%</t>
   </si>
   <si>
     <t>10,83%</t>
   </si>
   <si>
-    <t>52,97%</t>
-  </si>
-  <si>
-    <t>32,13%</t>
-  </si>
-  <si>
-    <t>73,82%</t>
+    <t>53,9%</t>
+  </si>
+  <si>
+    <t>31,43%</t>
+  </si>
+  <si>
+    <t>75,98%</t>
   </si>
   <si>
     <t>89,6%</t>
   </si>
   <si>
-    <t>71,02%</t>
+    <t>66,18%</t>
   </si>
   <si>
     <t>71,74%</t>
   </si>
   <si>
-    <t>57,5%</t>
-  </si>
-  <si>
-    <t>84,1%</t>
+    <t>56,56%</t>
+  </si>
+  <si>
+    <t>85,37%</t>
   </si>
   <si>
     <t>41,85%</t>
   </si>
   <si>
-    <t>22,62%</t>
-  </si>
-  <si>
-    <t>63,68%</t>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>62,95%</t>
   </si>
   <si>
     <t>10,53%</t>
@@ -290,31 +287,31 @@
     <t>20,91%</t>
   </si>
   <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>35,02%</t>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>34,95%</t>
   </si>
   <si>
     <t>4,29%</t>
   </si>
   <si>
-    <t>22,29%</t>
+    <t>21,73%</t>
   </si>
   <si>
     <t>10,4%</t>
   </si>
   <si>
-    <t>28,98%</t>
+    <t>33,82%</t>
   </si>
   <si>
     <t>7,35%</t>
   </si>
   <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -729,7 +726,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E1B140B-7BE4-45E2-BCF6-503FA336E831}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33E05463-7AD7-4A5E-981D-94FC726AB299}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1268,7 +1265,7 @@
         <v>58</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>16</v>
@@ -1283,7 +1280,7 @@
         <v>16</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>35</v>
@@ -1295,10 +1292,10 @@
         <v>6189</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>16</v>
@@ -1316,13 +1313,13 @@
         <v>1152</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -1337,7 +1334,7 @@
         <v>25</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M13" s="7">
         <v>1</v>
@@ -1346,13 +1343,13 @@
         <v>1152</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1367,13 +1364,13 @@
         <v>891</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>69</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -1388,7 +1385,7 @@
         <v>25</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M14" s="7">
         <v>1</v>
@@ -1397,13 +1394,13 @@
         <v>891</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1474,10 +1471,10 @@
         <v>21</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="H16" s="7">
         <v>15</v>
@@ -1486,10 +1483,10 @@
         <v>18636</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>16</v>
@@ -1501,13 +1498,13 @@
         <v>29821</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1522,13 +1519,13 @@
         <v>8690</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -1543,7 +1540,7 @@
         <v>25</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M17" s="7">
         <v>9</v>
@@ -1552,13 +1549,13 @@
         <v>8690</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1573,13 +1570,13 @@
         <v>891</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="H18" s="7">
         <v>2</v>
@@ -1588,13 +1585,13 @@
         <v>2164</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="M18" s="7">
         <v>3</v>
@@ -1603,13 +1600,13 @@
         <v>3055</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1665,7 +1662,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
